--- a/presentation_stuff/scoots_by_zones_csvs/All_scoots_by_zones.xlsx
+++ b/presentation_stuff/scoots_by_zones_csvs/All_scoots_by_zones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\NSS-Data-Analytics\projects\nashville-scooters-a-thorn-in-my-sidewalk\presentation_stuff\scoots_by_zones_csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FB20B6-0315-4BB8-A4C1-817845DFA3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A82214-3F2A-459A-BF4E-BEA763BB0615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{D673B01C-D0CB-4D9E-B691-3EEFFE1FE0F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{D673B01C-D0CB-4D9E-B691-3EEFFE1FE0F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sat_may_11" sheetId="1" r:id="rId1"/>
@@ -181,6 +181,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF0EA00"/>
+      <color rgb="FFF13FDC"/>
+      <color rgb="FFD957D9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -284,7 +291,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -472,7 +479,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -660,7 +667,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -848,7 +855,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="F0EA00"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1036,7 +1043,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="F13FDC"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1224,7 +1231,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1694,7 +1703,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1882,7 +1891,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2070,7 +2079,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2258,7 +2267,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="F0EA00"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2446,7 +2455,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="F13FDC"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2634,7 +2643,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3104,7 +3115,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3292,7 +3303,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3480,7 +3491,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3668,7 +3679,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="F0EA00"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3856,7 +3867,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="F13FDC"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4044,7 +4055,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5919,7 +5932,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6107,7 +6120,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6295,7 +6308,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6483,7 +6496,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="F0EA00"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6671,7 +6684,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="F13FDC"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6859,7 +6872,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -14530,7 +14545,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15095,7 +15110,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16789,8 +16804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E822331-03FB-46B2-9994-27BCEC3FC35B}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17919,7 +17934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125E73DB-60EF-4B60-B6AA-53BB9AF388CB}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
